--- a/medicine/Mort/Ancien_cimetière_de_Villeneuve-la-Garenne/Ancien_cimetière_de_Villeneuve-la-Garenne.xlsx
+++ b/medicine/Mort/Ancien_cimetière_de_Villeneuve-la-Garenne/Ancien_cimetière_de_Villeneuve-la-Garenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Villeneuve-la-Garenne</t>
+          <t>Ancien_cimetière_de_Villeneuve-la-Garenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Ancien cimetière de Villeneuve-la-Garenne est un cimetière communal se trouvant 92 avenue de Verdun à Villeneuve-la-Garenne dans les Hauts-de-Seine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ancien cimetière de Villeneuve-la-Garenne est un cimetière communal se trouvant 92 avenue de Verdun à Villeneuve-la-Garenne dans les Hauts-de-Seine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Villeneuve-la-Garenne</t>
+          <t>Ancien_cimetière_de_Villeneuve-la-Garenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière est le fruit d'un don testamentaire fait en 1909 par Mlle Françoise-Marie-Claudine-Élisabeth Dupont du Chambon. Cette demoiselle rentière, née en 1835 et décédée à Gennevilliers le 10 février 1909, légua au hameau de Villeneuve-la-Garenne, à condition qu'il soit érigé en commune, la somme de 100 000 francs pour l'acquisition d'un terrain en vue d'y établir un cimetière[2]. Les premières inhumations eurent lieu en 1930.
-Mademoiselle Dupont du Chambon, au titre de sa générosité, bénéficie d'une concession perpétuelle gratuite à titre d'hommage public[3] où ses restes reviennent le 5 octobre 1931. Elle offrit de plus à la ville le bâtiment de sa première mairie. Une rue de la ville porte son nom[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière est le fruit d'un don testamentaire fait en 1909 par Mlle Françoise-Marie-Claudine-Élisabeth Dupont du Chambon. Cette demoiselle rentière, née en 1835 et décédée à Gennevilliers le 10 février 1909, légua au hameau de Villeneuve-la-Garenne, à condition qu'il soit érigé en commune, la somme de 100 000 francs pour l'acquisition d'un terrain en vue d'y établir un cimetière. Les premières inhumations eurent lieu en 1930.
+Mademoiselle Dupont du Chambon, au titre de sa générosité, bénéficie d'une concession perpétuelle gratuite à titre d'hommage public où ses restes reviennent le 5 octobre 1931. Elle offrit de plus à la ville le bâtiment de sa première mairie. Une rue de la ville porte son nom.
 Depuis sa création en 1929, la ville de Villeneuve-la-Garenne est adhérente au SIFUREP (Syndicat Intercommunal Funéraire en Région Parisienne).
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Villeneuve-la-Garenne</t>
+          <t>Ancien_cimetière_de_Villeneuve-la-Garenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la création du cimetière, fut érigé un obélisque rendant hommage aux soldats morts pendant la Première Guerre mondiale, point de ralliement des cérémonies en l'honneur de la Patrie[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la création du cimetière, fut érigé un obélisque rendant hommage aux soldats morts pendant la Première Guerre mondiale, point de ralliement des cérémonies en l'honneur de la Patrie.
 Y fut adjoint, en 1953, un mémorial constitué de douze plaques de granit disposées en arc de cercle, déroulant la longue liste des habitants de la commune, morts pour la France.
-Le cimetière de Villeneuve-la-Garenne possède de plus un carré militaire de dimension modeste, comprenant vingt tombes individuelles[6].
+Le cimetière de Villeneuve-la-Garenne possède de plus un carré militaire de dimension modeste, comprenant vingt tombes individuelles.
 Outre cela, le cimetière comporte trois caveaux provisoires.
 L'ancien cimetière comporte 1183 concessions :
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Villeneuve-la-Garenne</t>
+          <t>Ancien_cimetière_de_Villeneuve-la-Garenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Cérémonies Commémoratives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chaque dernier dimanche d'avril – Anniversaire de la libération des camps de concentration.
 Chaque 8 mai – Anniversaire de la victoire du 8 mai 1945.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Villeneuve-la-Garenne</t>
+          <t>Ancien_cimetière_de_Villeneuve-la-Garenne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,14 +630,16 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mademoiselle Françoise Dupont du Chambon (1835-1909) – Bienfaitrice de la ville de Villeneuve-la-Garenne.
-Monsieur Homère Robert (décédé en 1934) – Maire de Villeneuve-la-Garenne de mai 1929 à 1934[7]. Son nom a été donné à une rue de Villeneuve.
+Monsieur Homère Robert (décédé en 1934) – Maire de Villeneuve-la-Garenne de mai 1929 à 1934. Son nom a été donné à une rue de Villeneuve.
 Monsieur Edmond-Achille Rarchaert (1880-1943) – Maire de Villeneuve-la-Garenne de 1934 à 1935. Une rue de la ville porte son nom.
 Monsieur Fernand Schwartz (décédé en 1975) – Maire de Villeneuve-la-Garenne de 1935 à 1945. Le gymnase Fernand-Schwartz honore sa mémoire.
 Monsieur Lucien Georges (1890-1955) – Maire de Villeneuve-la-Garenne d'octobre 1947 à mai 1953.
-Monsieur Roger Prévot (1914-1999) – Maire de Villeneuve-la-Garenne de mai 1953 jusqu'au 6 octobre 1999. (Décédé en fonction[8],[9])</t>
+Monsieur Roger Prévot (1914-1999) – Maire de Villeneuve-la-Garenne de mai 1953 jusqu'au 6 octobre 1999. (Décédé en fonction,)</t>
         </is>
       </c>
     </row>
